--- a/Classes/Junior Year/Spring 2019/J-Lab/Lab 7/LoadCellCalibration.xlsx
+++ b/Classes/Junior Year/Spring 2019/J-Lab/Lab 7/LoadCellCalibration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\Desktop\Charlie\Classes\Junior Year\Spring 2019\J-Lab\Lab 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429C8F3C-723B-4868-B55F-DB6AB551EBEB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89A0ED5-8C3D-4FA0-ACBB-896FB45DCC37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -893,7 +893,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Calibration Curve</a:t>
+              <a:t>Load Cell Calibration Curve</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1004,8 +1004,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.13674572748348174"/>
-                  <c:y val="0.50533519286305584"/>
+                  <c:x val="6.0739335652790473E-2"/>
+                  <c:y val="0.42185741345705108"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1139,6 +1139,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Voltage (V)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1201,6 +1256,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Weight (lb)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2853,7 +2963,7 @@
   <dimension ref="A1:L137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
